--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS_Emissions/CEDS_v0611/input/mappings/scaling/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386F668-0D2D-464E-9A6C-FE0D9EEAFDC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="60" yWindow="4040" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
     <sheet name="method" sheetId="2" r:id="rId2"/>
     <sheet name="year" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -326,7 +332,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -790,6 +796,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1116,14 +1125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
@@ -1131,7 +1140,7 @@
     <col min="5" max="6" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1153,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1157,7 +1166,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>72</v>
       </c>
@@ -1167,7 +1176,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -1177,7 +1186,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1190,7 +1199,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>72</v>
       </c>
@@ -1200,7 +1209,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>72</v>
       </c>
@@ -1210,7 +1219,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>72</v>
       </c>
@@ -1220,7 +1229,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>72</v>
       </c>
@@ -1230,7 +1239,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -1240,7 +1249,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -1250,7 +1259,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>72</v>
       </c>
@@ -1260,7 +1269,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -1270,7 +1279,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>72</v>
       </c>
@@ -1280,7 +1289,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>72</v>
       </c>
@@ -1290,7 +1299,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>72</v>
       </c>
@@ -1300,7 +1309,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>72</v>
       </c>
@@ -1310,7 +1319,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>72</v>
       </c>
@@ -1320,7 +1329,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1332,7 +1341,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>74</v>
       </c>
@@ -1340,7 +1349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>74</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>72</v>
       </c>
@@ -1358,7 +1367,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>72</v>
       </c>
@@ -1368,7 +1377,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>72</v>
       </c>
@@ -1378,7 +1387,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>72</v>
       </c>
@@ -1387,7 +1396,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>72</v>
       </c>
@@ -1396,7 +1405,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>72</v>
       </c>
@@ -1405,7 +1414,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>72</v>
       </c>
@@ -1414,7 +1423,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>72</v>
       </c>
@@ -1423,7 +1432,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>72</v>
       </c>
@@ -1432,7 +1441,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1444,7 +1453,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -1453,7 +1462,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -1462,7 +1471,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>75</v>
       </c>
@@ -1471,7 +1480,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>75</v>
       </c>
@@ -1480,7 +1489,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>75</v>
       </c>
@@ -1489,7 +1498,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1501,7 +1510,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1510,7 +1519,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -1519,7 +1528,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1529,7 +1538,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1539,7 +1548,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1563,7 +1572,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>81</v>
       </c>
@@ -1572,7 +1581,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>81</v>
       </c>
@@ -1581,7 +1590,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>81</v>
       </c>
@@ -1590,7 +1599,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1602,39 +1611,39 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>44</v>
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" t="s">
         <v>46</v>
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" t="s">
         <v>44</v>
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1646,7 +1655,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1658,7 +1667,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
         <v>85</v>
@@ -1669,7 +1678,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
         <v>85</v>
@@ -1680,7 +1689,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
         <v>85</v>
@@ -1691,7 +1700,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>85</v>
       </c>
@@ -1701,7 +1710,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>85</v>
       </c>
@@ -1711,14 +1720,14 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1726,7 +1735,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1734,253 +1743,253 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="C73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="C74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="C75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="C76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="C77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="6:6">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="6:6">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="6:6">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="6:6">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F116" s="1"/>
     </row>
-    <row r="126" spans="6:6">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F126" s="1"/>
     </row>
   </sheetData>
@@ -1994,21 +2003,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2053,19 +2062,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2091,7 +2100,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -2111,13 +2120,13 @@
         <v>2000</v>
       </c>
       <c r="G2">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="H2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -2143,7 +2152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS_Emissions/CEDS_v0611/input/mappings/scaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386F668-0D2D-464E-9A6C-FE0D9EEAFDC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EABC500-7A0A-9E44-949B-1AEFAC142BAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="4040" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14760" yWindow="7400" windowWidth="25600" windowHeight="13940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
     <sheet name="method" sheetId="2" r:id="rId2"/>
     <sheet name="year" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -323,10 +329,16 @@
     <t>Avoid imlied Nox EF dip 1986-1989</t>
   </si>
   <si>
-    <t>Problematic to lump this with stationary sectors, and probably something other than rail here, so try leaving out</t>
-  </si>
-  <si>
     <t>1A3dii_Domestic-navigation</t>
+  </si>
+  <si>
+    <t>Problematic to lump this with stationary sectors, and probably something other than rail here, so try leaving out. Also includes some 1A4c</t>
+  </si>
+  <si>
+    <t>not included in official definition</t>
+  </si>
+  <si>
+    <t>This sector is large for some countries, but seems to be inconsistantly reported by country</t>
   </si>
 </sst>
 </file>
@@ -1126,16 +1138,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="5" max="6" width="41" bestFit="1" customWidth="1"/>
   </cols>
@@ -1476,99 +1488,100 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>75</v>
+      <c r="A36" t="s">
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
       <c r="B43" t="s">
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1577,7 +1590,7 @@
         <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1586,85 +1599,100 @@
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>57</v>
-      </c>
       <c r="B47" t="s">
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
       <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="2"/>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="2"/>
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>59</v>
-      </c>
+      <c r="A54" s="4"/>
       <c r="B54" t="s">
         <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1673,29 +1701,27 @@
         <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" t="s">
-        <v>85</v>
-      </c>
       <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
       <c r="B57" t="s">
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1705,46 +1731,41 @@
         <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" t="s">
-        <v>78</v>
+      <c r="A59" t="s">
+        <v>60</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="4"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C63" s="4"/>
+      <c r="C63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
@@ -1754,11 +1775,11 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
@@ -1789,6 +1810,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
+      <c r="C72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
@@ -1811,13 +1833,14 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
+      <c r="A76" s="2"/>
       <c r="C76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -1853,7 +1876,7 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="1"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
@@ -1874,7 +1897,6 @@
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
@@ -1886,7 +1908,6 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" s="3"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
@@ -1896,7 +1917,6 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
@@ -1905,7 +1925,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E91" s="2"/>
+      <c r="E91" s="1"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -1917,11 +1937,10 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E94" s="1"/>
+      <c r="C94" s="1"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -1931,10 +1950,10 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -1947,10 +1966,10 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E103" s="1"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E104" s="1"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -1978,7 +1997,7 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="2"/>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114" s="1"/>
@@ -1986,11 +2005,8 @@
     <row r="115" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F116" s="1"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F126" s="1"/>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2065,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS_Emissions/CEDS_v0611/input/mappings/scaling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS/CEDS_v0611/input/mappings/scaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EABC500-7A0A-9E44-949B-1AEFAC142BAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F698CD-C947-694C-BECB-8CB5F8A2AAAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="7400" windowWidth="25600" windowHeight="13940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="7400" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="107">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -339,6 +339,21 @@
   </si>
   <si>
     <t>This sector is large for some countries, but seems to be inconsistantly reported by country</t>
+  </si>
+  <si>
+    <t>kgz</t>
+  </si>
+  <si>
+    <t>avoid missing data years</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>blr</t>
+  </si>
+  <si>
+    <t>mlt</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2079,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2194,6 +2209,101 @@
         <v>97</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>2016</v>
+      </c>
+      <c r="G5">
+        <v>2017</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>2016</v>
+      </c>
+      <c r="G6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>2014</v>
+      </c>
+      <c r="G7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS/CEDS_v0611/input/mappings/scaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F698CD-C947-694C-BECB-8CB5F8A2AAAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D69752-E4E6-4C49-B528-EF5FB17087A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="7400" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18980" yWindow="7220" windowWidth="25600" windowHeight="13940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="142">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -332,12 +332,6 @@
     <t>1A3dii_Domestic-navigation</t>
   </si>
   <si>
-    <t>Problematic to lump this with stationary sectors, and probably something other than rail here, so try leaving out. Also includes some 1A4c</t>
-  </si>
-  <si>
-    <t>not included in official definition</t>
-  </si>
-  <si>
     <t>This sector is large for some countries, but seems to be inconsistantly reported by country</t>
   </si>
   <si>
@@ -354,6 +348,117 @@
   </si>
   <si>
     <t>mlt</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>aze</t>
+  </si>
+  <si>
+    <t>bel</t>
+  </si>
+  <si>
+    <t>bgr</t>
+  </si>
+  <si>
+    <t>cyp</t>
+  </si>
+  <si>
+    <t>cze</t>
+  </si>
+  <si>
+    <t>dnk</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>gbr</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>grc</t>
+  </si>
+  <si>
+    <t>hrv</t>
+  </si>
+  <si>
+    <t>hun</t>
+  </si>
+  <si>
+    <t>irl</t>
+  </si>
+  <si>
+    <t>isl</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>ltu</t>
+  </si>
+  <si>
+    <t>lva</t>
+  </si>
+  <si>
+    <t>mda</t>
+  </si>
+  <si>
+    <t>nld</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>prt</t>
+  </si>
+  <si>
+    <t>rou</t>
+  </si>
+  <si>
+    <t>srb</t>
+  </si>
+  <si>
+    <t>svk</t>
+  </si>
+  <si>
+    <t>swe</t>
+  </si>
+  <si>
+    <t>tur</t>
+  </si>
+  <si>
+    <t>ukr</t>
+  </si>
+  <si>
+    <t>1A3eii_Other-transp</t>
+  </si>
+  <si>
+    <t>In both off-road and stationary combustion sectors</t>
+  </si>
+  <si>
+    <t>Off road includes mobile emissions from rail, 1A4 sectors, and pipelines</t>
+  </si>
+  <si>
+    <t>deu</t>
+  </si>
+  <si>
+    <t>large jump prior to 2000, not sure if real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes field burning, which is not in CEDS, will bias Nox high, but by ~.5% for 2010 </t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1300,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1527,7 +1632,7 @@
         <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -1564,34 +1669,43 @@
       <c r="A40" t="s">
         <v>56</v>
       </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
       <c r="B42" t="s">
         <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
       <c r="B43" t="s">
         <v>81</v>
       </c>
@@ -1610,32 +1724,23 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>28</v>
-      </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>57</v>
       </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1644,7 +1749,7 @@
         <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -1653,16 +1758,16 @@
         <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2"/>
     </row>
@@ -1671,43 +1776,41 @@
         <v>82</v>
       </c>
       <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
         <v>44</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s">
-        <v>40</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
       <c r="B54" t="s">
         <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>41</v>
+      </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1716,27 +1819,26 @@
         <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
       <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="C57" t="s">
         <v>80</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" t="s">
-        <v>42</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1746,41 +1848,48 @@
         <v>85</v>
       </c>
       <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
         <v>78</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>60</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>60</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C62" s="4"/>
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C63" s="2"/>
+      <c r="C63" s="4"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
@@ -1790,11 +1899,11 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
@@ -1825,7 +1934,6 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="C72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
@@ -1848,14 +1956,13 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+      <c r="A76" s="4"/>
       <c r="C76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="3"/>
       <c r="C77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -1891,7 +1998,7 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
+      <c r="C82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
@@ -1912,6 +2019,7 @@
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
+      <c r="C85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
@@ -1923,6 +2031,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
@@ -1932,6 +2041,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
@@ -1940,7 +2050,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E91" s="1"/>
+      <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -1952,10 +2062,11 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
+      <c r="E94" s="1"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -1965,10 +2076,10 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -1981,10 +2092,10 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E103" s="1"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E104" s="1"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -2012,7 +2123,7 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="1"/>
+      <c r="F113" s="2"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114" s="1"/>
@@ -2020,8 +2131,11 @@
     <row r="115" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115" s="1"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F125" s="1"/>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2094,15 +2208,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -2211,7 +2327,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -2229,15 +2345,15 @@
         <v>2016</v>
       </c>
       <c r="G5">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>92</v>
@@ -2255,12 +2371,15 @@
         <v>2016</v>
       </c>
       <c r="G6">
-        <v>2017</v>
+        <v>2020</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>92</v>
@@ -2278,12 +2397,15 @@
         <v>2014</v>
       </c>
       <c r="G7">
-        <v>2017</v>
+        <v>2020</v>
+      </c>
+      <c r="H7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
@@ -2301,7 +2423,998 @@
         <v>2000</v>
       </c>
       <c r="G8">
-        <v>2017</v>
+        <v>2020</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1990</v>
+      </c>
+      <c r="G9">
+        <v>2020</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>1990</v>
+      </c>
+      <c r="G10">
+        <v>2020</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>1990</v>
+      </c>
+      <c r="G11">
+        <v>2020</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>1990</v>
+      </c>
+      <c r="G12">
+        <v>2020</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>1990</v>
+      </c>
+      <c r="G13">
+        <v>2020</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1990</v>
+      </c>
+      <c r="G14">
+        <v>2020</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>1985</v>
+      </c>
+      <c r="G15">
+        <v>2020</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>1990</v>
+      </c>
+      <c r="G16">
+        <v>2020</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>1990</v>
+      </c>
+      <c r="G17">
+        <v>2020</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1990</v>
+      </c>
+      <c r="G18">
+        <v>2020</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>1990</v>
+      </c>
+      <c r="G19">
+        <v>2020</v>
+      </c>
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>2013</v>
+      </c>
+      <c r="G20">
+        <v>2020</v>
+      </c>
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1990</v>
+      </c>
+      <c r="G21">
+        <v>2020</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>1990</v>
+      </c>
+      <c r="G22">
+        <v>2020</v>
+      </c>
+      <c r="H22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1990</v>
+      </c>
+      <c r="G23">
+        <v>2020</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>1990</v>
+      </c>
+      <c r="G24">
+        <v>2020</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>1990</v>
+      </c>
+      <c r="G25">
+        <v>2020</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1990</v>
+      </c>
+      <c r="G26">
+        <v>2020</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>1990</v>
+      </c>
+      <c r="G27">
+        <v>2020</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>1990</v>
+      </c>
+      <c r="G28">
+        <v>2020</v>
+      </c>
+      <c r="H28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>1990</v>
+      </c>
+      <c r="G29">
+        <v>2020</v>
+      </c>
+      <c r="H29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>1990</v>
+      </c>
+      <c r="G30">
+        <v>2020</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>1990</v>
+      </c>
+      <c r="G31">
+        <v>2020</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>2000</v>
+      </c>
+      <c r="G32">
+        <v>2020</v>
+      </c>
+      <c r="H32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>1990</v>
+      </c>
+      <c r="G33">
+        <v>2020</v>
+      </c>
+      <c r="H33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>1990</v>
+      </c>
+      <c r="G34">
+        <v>2020</v>
+      </c>
+      <c r="H34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>1990</v>
+      </c>
+      <c r="G35">
+        <v>2020</v>
+      </c>
+      <c r="H35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>1990</v>
+      </c>
+      <c r="G36">
+        <v>2020</v>
+      </c>
+      <c r="H36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>2000</v>
+      </c>
+      <c r="G37">
+        <v>2020</v>
+      </c>
+      <c r="H37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>1990</v>
+      </c>
+      <c r="G38">
+        <v>2020</v>
+      </c>
+      <c r="H38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>1990</v>
+      </c>
+      <c r="G39">
+        <v>2020</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>1990</v>
+      </c>
+      <c r="G40">
+        <v>2020</v>
+      </c>
+      <c r="H40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>1990</v>
+      </c>
+      <c r="G41">
+        <v>2020</v>
+      </c>
+      <c r="H41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>2014</v>
+      </c>
+      <c r="G42">
+        <v>2020</v>
+      </c>
+      <c r="H42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>2000</v>
+      </c>
+      <c r="G43">
+        <v>2020</v>
+      </c>
+      <c r="H43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44">
+        <v>2000</v>
+      </c>
+      <c r="D44">
+        <v>2018</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>2000</v>
+      </c>
+      <c r="G44">
+        <v>2020</v>
+      </c>
+      <c r="H44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45">
+        <v>2000</v>
+      </c>
+      <c r="D45">
+        <v>2018</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>2000</v>
+      </c>
+      <c r="G45">
+        <v>2020</v>
+      </c>
+      <c r="H45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46">
+        <v>2000</v>
+      </c>
+      <c r="D46">
+        <v>2018</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>2000</v>
+      </c>
+      <c r="G46">
+        <v>2020</v>
+      </c>
+      <c r="H46" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
